--- a/track2.xlsx
+++ b/track2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Program\StripDivide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74E17952-7505-40FA-88EA-1772A999FDA3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2425F0F-99E8-4452-8161-DFF514F0CD82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7824" xr2:uid="{7D694CE9-11BD-4581-9E16-5FD91B8641B6}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3849"/>
+      <selection activeCell="A2" sqref="A2:B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,3738 +414,3738 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>116.60945053905725</v>
+        <v>116.58747875858394</v>
       </c>
       <c r="B2">
-        <v>40.230459525199002</v>
+        <v>40.238969360666125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>116.60944941249686</v>
+        <v>116.58747476991995</v>
       </c>
       <c r="B3">
-        <v>40.230490149510352</v>
+        <v>40.238938879342825</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>116.60944828593541</v>
+        <v>116.58747078126041</v>
       </c>
       <c r="B4">
-        <v>40.230520773822455</v>
+        <v>40.238908398020826</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>116.60944715937289</v>
+        <v>116.58746679260534</v>
       </c>
       <c r="B5">
-        <v>40.230551398135248</v>
+        <v>40.238877916700126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>116.60944603280936</v>
+        <v>116.58746280395465</v>
       </c>
       <c r="B6">
-        <v>40.230582022448758</v>
+        <v>40.238847435380691</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>116.60944490624473</v>
+        <v>116.58745881530837</v>
       </c>
       <c r="B7">
-        <v>40.230612646762999</v>
+        <v>40.238816954062571</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>116.6094437796791</v>
+        <v>116.58745482666653</v>
       </c>
       <c r="B8">
-        <v>40.230643271077959</v>
+        <v>40.238786472745723</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>116.60944265311238</v>
+        <v>116.58745083802906</v>
       </c>
       <c r="B9">
-        <v>40.230673895393643</v>
+        <v>40.238755991430168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>116.6094415265446</v>
+        <v>116.58744684939609</v>
       </c>
       <c r="B10">
-        <v>40.230704519710038</v>
+        <v>40.238725510115906</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>116.60944039997575</v>
+        <v>116.58744286076747</v>
       </c>
       <c r="B11">
-        <v>40.230735144027165</v>
+        <v>40.23869502880293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>116.60943927340588</v>
+        <v>116.58743887214328</v>
       </c>
       <c r="B12">
-        <v>40.230765768345016</v>
+        <v>40.23866454749124</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>116.60943814683493</v>
+        <v>116.58743488352351</v>
       </c>
       <c r="B13">
-        <v>40.230796392663564</v>
+        <v>40.238634066180843</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>116.60943702026297</v>
+        <v>116.58743089490818</v>
       </c>
       <c r="B14">
-        <v>40.230827016982857</v>
+        <v>40.238603584871733</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>116.60943589368993</v>
+        <v>116.58742690629725</v>
       </c>
       <c r="B15">
-        <v>40.230857641302848</v>
+        <v>40.238573103563901</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>116.60943476711583</v>
+        <v>116.58742291769072</v>
       </c>
       <c r="B16">
-        <v>40.230888265623584</v>
+        <v>40.238542622257377</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>116.60943364054066</v>
+        <v>116.58741892908866</v>
       </c>
       <c r="B17">
-        <v>40.230918889945045</v>
+        <v>40.238512140952132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>116.60943251396451</v>
+        <v>116.58741494049097</v>
       </c>
       <c r="B18">
-        <v>40.230949514267195</v>
+        <v>40.238481659648173</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>116.60943138738723</v>
+        <v>116.58741095189772</v>
       </c>
       <c r="B19">
-        <v>40.230980138590077</v>
+        <v>40.238451178345507</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>116.60943026080894</v>
+        <v>116.58740696330888</v>
       </c>
       <c r="B20">
-        <v>40.231010762913698</v>
+        <v>40.238420697044141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>116.60942913422954</v>
+        <v>116.58740297472445</v>
       </c>
       <c r="B21">
-        <v>40.231041387238022</v>
+        <v>40.238390215744033</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>116.60942800764916</v>
+        <v>116.58739898614444</v>
       </c>
       <c r="B22">
-        <v>40.231072011563064</v>
+        <v>40.238359734445233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>116.60942688106769</v>
+        <v>116.58739499756889</v>
       </c>
       <c r="B23">
-        <v>40.231102635888838</v>
+        <v>40.238329253147711</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>116.60942575448516</v>
+        <v>116.58739100899768</v>
       </c>
       <c r="B24">
-        <v>40.231133260215344</v>
+        <v>40.238298771851483</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>116.6094246279016</v>
+        <v>116.58738702043097</v>
       </c>
       <c r="B25">
-        <v>40.231163884542553</v>
+        <v>40.23826829055654</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>116.60942350131697</v>
+        <v>116.58738303186863</v>
       </c>
       <c r="B26">
-        <v>40.231194508870495</v>
+        <v>40.238237809262891</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>116.60942237473128</v>
+        <v>116.58737904331072</v>
       </c>
       <c r="B27">
-        <v>40.231225133199153</v>
+        <v>40.238207327970535</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>116.60942124814451</v>
+        <v>116.58737505475723</v>
       </c>
       <c r="B28">
-        <v>40.231255757528537</v>
+        <v>40.23817684667948</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>116.60942012155672</v>
+        <v>116.58737106620816</v>
       </c>
       <c r="B29">
-        <v>40.231286381858638</v>
+        <v>40.238146365389674</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>116.60941899496788</v>
+        <v>116.58736707766347</v>
       </c>
       <c r="B30">
-        <v>40.23131700618945</v>
+        <v>40.23811588410117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>116.60941786837799</v>
+        <v>116.58736308912326</v>
       </c>
       <c r="B31">
-        <v>40.231347630521007</v>
+        <v>40.238085402813965</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>116.60941674178703</v>
+        <v>116.58735998360999</v>
       </c>
       <c r="B32">
-        <v>40.231378254853269</v>
+        <v>40.238093921730211</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>116.60941561519502</v>
+        <v>116.58736013207752</v>
       </c>
       <c r="B33">
-        <v>40.231408879186276</v>
+        <v>40.238102764686161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>116.60941448860197</v>
+        <v>116.58736352249927</v>
       </c>
       <c r="B34">
-        <v>40.231439503519965</v>
+        <v>40.238111215278131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>116.60941336200784</v>
+        <v>116.58736988020631</v>
       </c>
       <c r="B35">
-        <v>40.231470127854408</v>
+        <v>40.238118588890565</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>116.60941223541268</v>
+        <v>116.58737869013859</v>
       </c>
       <c r="B36">
-        <v>40.231500752189575</v>
+        <v>40.238124288159035</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>116.60941110881649</v>
+        <v>116.58738923857071</v>
       </c>
       <c r="B37">
-        <v>40.231531376525453</v>
+        <v>40.238127851364624</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>116.6094099822192</v>
+        <v>116.58740067093316</v>
       </c>
       <c r="B38">
-        <v>40.231562000862056</v>
+        <v>40.238128989839069</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>116.60940885562086</v>
+        <v>116.58741206104359</v>
       </c>
       <c r="B39">
-        <v>40.231592625199376</v>
+        <v>40.238127611350436</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>116.60940772902148</v>
+        <v>116.58742248614074</v>
       </c>
       <c r="B40">
-        <v>40.231623249537435</v>
+        <v>40.238123827575073</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>116.60940660242106</v>
+        <v>116.58743110164193</v>
       </c>
       <c r="B41">
-        <v>40.231653873876205</v>
+        <v>40.238117945050419</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>116.60940547581956</v>
+        <v>116.58743720956707</v>
       </c>
       <c r="B42">
-        <v>40.231684498215678</v>
+        <v>40.238110440341714</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>116.60940434921702</v>
+        <v>116.58744119815975</v>
       </c>
       <c r="B43">
-        <v>40.231715122555904</v>
+        <v>40.238140921640387</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>116.60940322261341</v>
+        <v>116.58744518675688</v>
       </c>
       <c r="B44">
-        <v>40.231745746896841</v>
+        <v>40.238171402940367</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>116.60940209600878</v>
+        <v>116.58744917535837</v>
       </c>
       <c r="B45">
-        <v>40.231776371238503</v>
+        <v>40.238201884241626</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>116.60940096940301</v>
+        <v>116.58745316396431</v>
       </c>
       <c r="B46">
-        <v>40.231806995580875</v>
+        <v>40.238232365544171</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>116.60939984279626</v>
+        <v>116.58745715257464</v>
       </c>
       <c r="B47">
-        <v>40.231837619924001</v>
+        <v>40.238262846847995</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>116.60939871618845</v>
+        <v>116.58746114118944</v>
       </c>
       <c r="B48">
-        <v>40.231868244267822</v>
+        <v>40.238293328153105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>116.6093975895796</v>
+        <v>116.58746512980862</v>
       </c>
       <c r="B49">
-        <v>40.23189886861239</v>
+        <v>40.238323809459523</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>116.60939646296967</v>
+        <v>116.58746911843224</v>
       </c>
       <c r="B50">
-        <v>40.231929492957647</v>
+        <v>40.238354290767226</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>116.6093953363587</v>
+        <v>116.58747310706025</v>
       </c>
       <c r="B51">
-        <v>40.231960117303657</v>
+        <v>40.238384772076195</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>116.60939420974665</v>
+        <v>116.58747709569271</v>
       </c>
       <c r="B52">
-        <v>40.231990741650378</v>
+        <v>40.238415253386492</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>116.6093930831336</v>
+        <v>116.58748108432955</v>
       </c>
       <c r="B53">
-        <v>40.232021365997824</v>
+        <v>40.23844573469804</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>116.60939195651947</v>
+        <v>116.58748507297081</v>
       </c>
       <c r="B54">
-        <v>40.232051990346001</v>
+        <v>40.238476216010881</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>116.60939082990426</v>
+        <v>116.58748906161652</v>
       </c>
       <c r="B55">
-        <v>40.232082614694896</v>
+        <v>40.238506697325015</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>116.60938970328803</v>
+        <v>116.58749305026662</v>
       </c>
       <c r="B56">
-        <v>40.232113239044516</v>
+        <v>40.238537178640442</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>116.60938857667075</v>
+        <v>116.58749703892117</v>
       </c>
       <c r="B57">
-        <v>40.23214386339486</v>
+        <v>40.238567659957162</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>116.60938745005237</v>
+        <v>116.58750102758015</v>
       </c>
       <c r="B58">
-        <v>40.232174487745915</v>
+        <v>40.238598141275169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>116.60938632343297</v>
+        <v>116.58750501624347</v>
       </c>
       <c r="B59">
-        <v>40.232205112097716</v>
+        <v>40.238628622594447</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>116.60938519681253</v>
+        <v>116.58750900491127</v>
       </c>
       <c r="B60">
-        <v>40.232235736450228</v>
+        <v>40.238659103915033</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>116.609384070191</v>
+        <v>116.58751299358349</v>
       </c>
       <c r="B61">
-        <v>40.232266360803457</v>
+        <v>40.238689585236905</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>116.60938294356843</v>
+        <v>116.58751698226011</v>
       </c>
       <c r="B62">
-        <v>40.23229698515744</v>
+        <v>40.238720066560056</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>116.60938181694479</v>
+        <v>116.58752097094117</v>
       </c>
       <c r="B63">
-        <v>40.232327609512119</v>
+        <v>40.238750547884521</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>116.60938069032011</v>
+        <v>116.58752495962662</v>
       </c>
       <c r="B64">
-        <v>40.232358233867529</v>
+        <v>40.238781029210251</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>116.6093795636944</v>
+        <v>116.58752894831649</v>
       </c>
       <c r="B65">
-        <v>40.232388858223665</v>
+        <v>40.238811510537268</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>116.60937843706759</v>
+        <v>116.58753293701082</v>
       </c>
       <c r="B66">
-        <v>40.232419482580532</v>
+        <v>40.238841991865591</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>116.6093773104398</v>
+        <v>116.58753692570951</v>
       </c>
       <c r="B67">
-        <v>40.232450106938117</v>
+        <v>40.23887247319518</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>116.60937618381091</v>
+        <v>116.58754091441264</v>
       </c>
       <c r="B68">
-        <v>40.232480731296413</v>
+        <v>40.23890295452609</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>116.60937505718097</v>
+        <v>116.58754490312019</v>
       </c>
       <c r="B69">
-        <v>40.232511355655468</v>
+        <v>40.238933435858272</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>116.60937393054996</v>
+        <v>116.58754889183218</v>
       </c>
       <c r="B70">
-        <v>40.232541980015206</v>
+        <v>40.238963917191747</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>116.60937280391788</v>
+        <v>116.58755142773313</v>
       </c>
       <c r="B71">
-        <v>40.232572604375697</v>
+        <v>40.238950816907341</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>116.60937167728481</v>
+        <v>116.58755656505406</v>
       </c>
       <c r="B72">
-        <v>40.23260322873692</v>
+        <v>40.238944205009851</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>116.60937055065064</v>
+        <v>116.58756392163025</v>
       </c>
       <c r="B73">
-        <v>40.232633853098854</v>
+        <v>40.238938969583451</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>116.60936942401544</v>
+        <v>116.58757290147906</v>
       </c>
       <c r="B74">
-        <v>40.232664477461505</v>
+        <v>40.238935534772132</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>116.60936829737916</v>
+        <v>116.58758277711021</v>
       </c>
       <c r="B75">
-        <v>40.232695101824888</v>
+        <v>40.238934178844637</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>116.60936717074185</v>
+        <v>116.5875927484617</v>
       </c>
       <c r="B76">
-        <v>40.23272572618901</v>
+        <v>40.238935011650518</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>116.60936604410348</v>
+        <v>116.58760200771557</v>
       </c>
       <c r="B77">
-        <v>40.232756350553828</v>
+        <v>40.238937965720531</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>116.60936491746403</v>
+        <v>116.58760980474207</v>
       </c>
       <c r="B78">
-        <v>40.232786974919399</v>
+        <v>40.238942801732868</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>116.60936379082355</v>
+        <v>116.58761550787121</v>
       </c>
       <c r="B79">
-        <v>40.232817599285696</v>
+        <v>40.238949127901627</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>116.609362664182</v>
+        <v>116.58761865506742</v>
       </c>
       <c r="B80">
-        <v>40.232848223652688</v>
+        <v>40.238956431717654</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>116.60936153753941</v>
+        <v>116.58761902536666</v>
       </c>
       <c r="B81">
-        <v>40.232878848020434</v>
+        <v>40.238958473896282</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>116.60936041089576</v>
+        <v>116.58761503660669</v>
       </c>
       <c r="B82">
-        <v>40.232909472388904</v>
+        <v>40.238927992552625</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>116.60935928425108</v>
+        <v>116.58761104785106</v>
       </c>
       <c r="B83">
-        <v>40.232940096758099</v>
+        <v>40.238897511210261</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>116.60935815760533</v>
+        <v>116.58760705909989</v>
       </c>
       <c r="B84">
-        <v>40.232970721128012</v>
+        <v>40.238867029869184</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>116.60935703095852</v>
+        <v>116.58760307035318</v>
       </c>
       <c r="B85">
-        <v>40.23300134549865</v>
+        <v>40.238836548529406</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>116.60935590431065</v>
+        <v>116.58759908161083</v>
       </c>
       <c r="B86">
-        <v>40.233031969870019</v>
+        <v>40.238806067190893</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>116.6093570529991</v>
+        <v>116.5875950928729</v>
       </c>
       <c r="B87">
-        <v>40.233039614027398</v>
+        <v>40.238775585853695</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>116.60936096611425</v>
+        <v>116.58759110413946</v>
       </c>
       <c r="B88">
-        <v>40.233046701556688</v>
+        <v>40.238745104517776</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>116.60936732664182</v>
+        <v>116.5875871154104</v>
       </c>
       <c r="B89">
-        <v>40.233052658270623</v>
+        <v>40.238714623183142</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>116.60937561929317</v>
+        <v>116.58758312668576</v>
       </c>
       <c r="B90">
-        <v>40.233057001593991</v>
+        <v>40.238684141849795</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>116.6093851722504</v>
+        <v>116.58757913796549</v>
       </c>
       <c r="B91">
-        <v>40.233059379658599</v>
+        <v>40.238653660517755</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>116.60939521159183</v>
+        <v>116.58757514924966</v>
       </c>
       <c r="B92">
-        <v>40.233059599808996</v>
+        <v>40.238623179186995</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>116.60940492399077</v>
+        <v>116.58757116053826</v>
       </c>
       <c r="B93">
-        <v>40.233057644210049</v>
+        <v>40.23859269785752</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>116.60941352260591</v>
+        <v>116.58756717183132</v>
       </c>
       <c r="B94">
-        <v>40.233053671291671</v>
+        <v>40.238562216529331</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>116.60942031082762</v>
+        <v>116.58756318312875</v>
       </c>
       <c r="B95">
-        <v>40.233048002914259</v>
+        <v>40.238531735202443</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>116.60942473871336</v>
+        <v>116.5875591944306</v>
       </c>
       <c r="B96">
-        <v>40.233041098293675</v>
+        <v>40.238501253876827</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>116.60942644754167</v>
+        <v>116.58755520573686</v>
       </c>
       <c r="B97">
-        <v>40.233033516798947</v>
+        <v>40.238470772552503</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>116.60942757416228</v>
+        <v>116.58755121704755</v>
       </c>
       <c r="B98">
-        <v>40.233002892430093</v>
+        <v>40.23844029122948</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>116.60942870078188</v>
+        <v>116.58754722836269</v>
       </c>
       <c r="B99">
-        <v>40.232972268061943</v>
+        <v>40.238409809907743</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>116.60942982740042</v>
+        <v>116.58754323968219</v>
       </c>
       <c r="B100">
-        <v>40.232941643694517</v>
+        <v>40.238379328587278</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>116.6094309540179</v>
+        <v>116.58753925100616</v>
       </c>
       <c r="B101">
-        <v>40.232911019327815</v>
+        <v>40.238348847268099</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>116.60943208063432</v>
+        <v>116.58753526233453</v>
       </c>
       <c r="B102">
-        <v>40.23288039496186</v>
+        <v>40.238318365950235</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>116.60943320724968</v>
+        <v>116.58753127366735</v>
       </c>
       <c r="B103">
-        <v>40.232849770596609</v>
+        <v>40.238287884633628</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>116.609434333864</v>
+        <v>116.58752728500454</v>
       </c>
       <c r="B104">
-        <v>40.232819146232103</v>
+        <v>40.238257403318336</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>116.60943546047729</v>
+        <v>116.58752329634615</v>
       </c>
       <c r="B105">
-        <v>40.232788521868308</v>
+        <v>40.23822692200433</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>116.60943658708949</v>
+        <v>116.5875193076922</v>
       </c>
       <c r="B106">
-        <v>40.232757897505238</v>
+        <v>40.238196440691603</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>116.60943771370064</v>
+        <v>116.58751531904268</v>
       </c>
       <c r="B107">
-        <v>40.232727273142906</v>
+        <v>40.238165959380154</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>116.60943884031076</v>
+        <v>116.58751133039753</v>
       </c>
       <c r="B108">
-        <v>40.232696648781285</v>
+        <v>40.238135478070014</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>116.60943996691982</v>
+        <v>116.58750734175685</v>
       </c>
       <c r="B109">
-        <v>40.232666024420411</v>
+        <v>40.238104996761152</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>116.60944109352778</v>
+        <v>116.58750771204586</v>
       </c>
       <c r="B110">
-        <v>40.232635400060239</v>
+        <v>40.238107038936967</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>116.60944222013474</v>
+        <v>116.58751085917181</v>
       </c>
       <c r="B111">
-        <v>40.2326047757008</v>
+        <v>40.238114342735827</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>116.60944334674062</v>
+        <v>116.58751656218882</v>
       </c>
       <c r="B112">
-        <v>40.232574151342085</v>
+        <v>40.23812066887983</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>116.60944447334546</v>
+        <v>116.58752435907587</v>
       </c>
       <c r="B113">
-        <v>40.232543526984088</v>
+        <v>40.238125504864527</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>116.60944559994924</v>
+        <v>116.58753361817865</v>
       </c>
       <c r="B114">
-        <v>40.232512902626844</v>
+        <v>40.238128458909259</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>116.60944672655198</v>
+        <v>116.58754358938192</v>
       </c>
       <c r="B115">
-        <v>40.232482278270304</v>
+        <v>40.23812929169631</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116.60944785315365</v>
+        <v>116.58755346487905</v>
       </c>
       <c r="B116">
-        <v>40.232451653914495</v>
+        <v>40.238127935758612</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116.60944897975426</v>
+        <v>116.58756244461539</v>
       </c>
       <c r="B117">
-        <v>40.23242102955939</v>
+        <v>40.238124500945524</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116.60945010635385</v>
+        <v>116.58756980110456</v>
       </c>
       <c r="B118">
-        <v>40.232390405205031</v>
+        <v>40.23811926552353</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>116.60945123295234</v>
+        <v>116.587574938366</v>
       </c>
       <c r="B119">
-        <v>40.232359780851397</v>
+        <v>40.238112653633316</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>116.60945235954981</v>
+        <v>116.5875774742328</v>
       </c>
       <c r="B120">
-        <v>40.23232915649848</v>
+        <v>40.238099553359497</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>116.60945348614621</v>
+        <v>116.58758146292153</v>
       </c>
       <c r="B121">
-        <v>40.232298532146281</v>
+        <v>40.238130034678527</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>116.60945461274157</v>
+        <v>116.58758545161466</v>
       </c>
       <c r="B122">
-        <v>40.232267907794828</v>
+        <v>40.238160515998864</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>116.60945573933586</v>
+        <v>116.58758944031221</v>
       </c>
       <c r="B123">
-        <v>40.232237283444086</v>
+        <v>40.238190997320487</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>116.6094568659291</v>
+        <v>116.58759342901423</v>
       </c>
       <c r="B124">
-        <v>40.232206659094061</v>
+        <v>40.238221478643396</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>116.60945799252127</v>
+        <v>116.58759741772062</v>
       </c>
       <c r="B125">
-        <v>40.232176034744775</v>
+        <v>40.238251959967592</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>116.60945911911243</v>
+        <v>116.58760140643145</v>
       </c>
       <c r="B126">
-        <v>40.232145410396207</v>
+        <v>40.238282441293087</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>116.60946024570251</v>
+        <v>116.58760539514667</v>
       </c>
       <c r="B127">
-        <v>40.232114786048349</v>
+        <v>40.238312922619855</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>116.60946137229155</v>
+        <v>116.58760938386632</v>
       </c>
       <c r="B128">
-        <v>40.232084161701231</v>
+        <v>40.238343403947923</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>116.60946249887952</v>
+        <v>116.58761337259043</v>
       </c>
       <c r="B129">
-        <v>40.23205353735483</v>
+        <v>40.238373885277269</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>116.60946362546646</v>
+        <v>116.58761736131889</v>
       </c>
       <c r="B130">
-        <v>40.23202291300916</v>
+        <v>40.238404366607909</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>116.60946475205226</v>
+        <v>116.58762135005182</v>
       </c>
       <c r="B131">
-        <v>40.231992288664216</v>
+        <v>40.238434847939821</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>116.60946587863711</v>
+        <v>116.58762533878912</v>
       </c>
       <c r="B132">
-        <v>40.231961664319975</v>
+        <v>40.238465329273041</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>116.60946700522086</v>
+        <v>116.58762932753089</v>
       </c>
       <c r="B133">
-        <v>40.231931039976466</v>
+        <v>40.238495810607546</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>116.60946813180357</v>
+        <v>116.58763331627706</v>
       </c>
       <c r="B134">
-        <v>40.231900415633696</v>
+        <v>40.238526291943344</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>116.60946925838525</v>
+        <v>116.58763730502766</v>
       </c>
       <c r="B135">
-        <v>40.231869791291636</v>
+        <v>40.238556773280415</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>116.60947038496583</v>
+        <v>116.58764129378264</v>
       </c>
       <c r="B136">
-        <v>40.231839166950309</v>
+        <v>40.238587254618793</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>116.60947151154539</v>
+        <v>116.58764528254208</v>
       </c>
       <c r="B137">
-        <v>40.231808542609677</v>
+        <v>40.238617735958449</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>116.60947263812385</v>
+        <v>116.58764927130591</v>
       </c>
       <c r="B138">
-        <v>40.231777918269799</v>
+        <v>40.238648217299392</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>116.60947376470129</v>
+        <v>116.58765326007418</v>
       </c>
       <c r="B139">
-        <v>40.231747293930631</v>
+        <v>40.238678698641628</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>116.60947489127767</v>
+        <v>116.58765724884684</v>
       </c>
       <c r="B140">
-        <v>40.231716669592203</v>
+        <v>40.238709179985158</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>116.609476017853</v>
+        <v>116.58766123762393</v>
       </c>
       <c r="B141">
-        <v>40.23168604525447</v>
+        <v>40.238739661329966</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>116.60947714442726</v>
+        <v>116.58766522640549</v>
       </c>
       <c r="B142">
-        <v>40.231655420917491</v>
+        <v>40.238770142676074</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>116.60947827100048</v>
+        <v>116.58766921519144</v>
       </c>
       <c r="B143">
-        <v>40.231624796581208</v>
+        <v>40.238800624023462</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>116.60947939757264</v>
+        <v>116.58767320398175</v>
       </c>
       <c r="B144">
-        <v>40.231594172245643</v>
+        <v>40.238831105372149</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>116.60948052414376</v>
+        <v>116.58767719277654</v>
       </c>
       <c r="B145">
-        <v>40.231563547910831</v>
+        <v>40.238861586722123</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>116.60948165071385</v>
+        <v>116.58768118157575</v>
       </c>
       <c r="B146">
-        <v>40.231532923576729</v>
+        <v>40.238892068073383</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>116.60948277728282</v>
+        <v>116.58768517037937</v>
       </c>
       <c r="B147">
-        <v>40.231502299243338</v>
+        <v>40.238922549425929</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>116.60948390385077</v>
+        <v>116.58768915918741</v>
       </c>
       <c r="B148">
-        <v>40.231471674910679</v>
+        <v>40.238953030779776</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>116.60948503041767</v>
+        <v>116.58769526725513</v>
       </c>
       <c r="B149">
-        <v>40.231441050578731</v>
+        <v>40.238945526123928</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>116.60948615698354</v>
+        <v>116.58770388297948</v>
       </c>
       <c r="B150">
-        <v>40.231410426247521</v>
+        <v>40.238939643681498</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>116.60948728354833</v>
+        <v>116.58771430836914</v>
       </c>
       <c r="B151">
-        <v>40.231379801917015</v>
+        <v>40.238935860014969</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>116.60948841011208</v>
+        <v>116.58772569882441</v>
       </c>
       <c r="B152">
-        <v>40.231349177587262</v>
+        <v>40.238934481656017</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>116.60948953667474</v>
+        <v>116.58773713156049</v>
       </c>
       <c r="B153">
-        <v>40.231318553258198</v>
+        <v>40.238935620271683</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>116.60949066323637</v>
+        <v>116.58774768036544</v>
       </c>
       <c r="B154">
-        <v>40.231287928929888</v>
+        <v>40.238939183617603</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>116.60949178979695</v>
+        <v>116.58775649063624</v>
       </c>
       <c r="B155">
-        <v>40.231257304602281</v>
+        <v>40.238944883011229</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>116.6094929163565</v>
+        <v>116.58776284861399</v>
       </c>
       <c r="B156">
-        <v>40.231226680275391</v>
+        <v>40.238952256719656</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>116.60949404291495</v>
+        <v>116.58776623920976</v>
       </c>
       <c r="B157">
-        <v>40.231196055949226</v>
+        <v>40.238960707367085</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>116.60949516947235</v>
+        <v>116.58776638773472</v>
       </c>
       <c r="B158">
-        <v>40.231165431623786</v>
+        <v>40.238969550331177</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>116.60949629602869</v>
+        <v>116.58776328215484</v>
       </c>
       <c r="B159">
-        <v>40.231134807299064</v>
+        <v>40.238978069207519</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>116.60949742258401</v>
+        <v>116.58775929329437</v>
       </c>
       <c r="B160">
-        <v>40.231104182975066</v>
+        <v>40.238947587842212</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>116.60949854913824</v>
+        <v>116.5877553044383</v>
       </c>
       <c r="B161">
-        <v>40.231073558651794</v>
+        <v>40.238917106478183</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>116.60949967569147</v>
+        <v>116.58775131558667</v>
       </c>
       <c r="B162">
-        <v>40.231042934329231</v>
+        <v>40.238886625115455</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>116.6095008022436</v>
+        <v>116.58774732673942</v>
       </c>
       <c r="B163">
-        <v>40.231012310007394</v>
+        <v>40.238856143753992</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>116.60950192879471</v>
+        <v>116.58774333789665</v>
       </c>
       <c r="B164">
-        <v>40.230981685686295</v>
+        <v>40.238825662393857</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>116.60950305534472</v>
+        <v>116.58773934905825</v>
       </c>
       <c r="B165">
-        <v>40.230951061365886</v>
+        <v>40.238795181034988</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>116.60950418189373</v>
+        <v>116.58773536022429</v>
       </c>
       <c r="B166">
-        <v>40.230920437046208</v>
+        <v>40.238764699677397</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>116.60950530844167</v>
+        <v>116.58773137139474</v>
       </c>
       <c r="B167">
-        <v>40.23088981272727</v>
+        <v>40.238734218321113</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>116.60950643498855</v>
+        <v>116.58772738256961</v>
       </c>
       <c r="B168">
-        <v>40.230859188409035</v>
+        <v>40.238703736966116</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>116.60950756153437</v>
+        <v>116.5877233937489</v>
       </c>
       <c r="B169">
-        <v>40.230828564091539</v>
+        <v>40.238673255612404</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>116.60950868807912</v>
+        <v>116.58771940493259</v>
       </c>
       <c r="B170">
-        <v>40.230797939774739</v>
+        <v>40.238642774259986</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>116.60950981462285</v>
+        <v>116.58771541612073</v>
       </c>
       <c r="B171">
-        <v>40.230767315458685</v>
+        <v>40.238612292908854</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>116.6095109411655</v>
+        <v>116.58771142731328</v>
       </c>
       <c r="B172">
-        <v>40.230736691143335</v>
+        <v>40.238581811559008</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>116.60951206770712</v>
+        <v>116.58770743851026</v>
       </c>
       <c r="B173">
-        <v>40.230706066828695</v>
+        <v>40.238551330210456</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>116.60951319424767</v>
+        <v>116.58770344971161</v>
       </c>
       <c r="B174">
-        <v>40.230675442514794</v>
+        <v>40.238520848863196</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>116.60951432078718</v>
+        <v>116.58769946091743</v>
       </c>
       <c r="B175">
-        <v>40.230644818201611</v>
+        <v>40.238490367517201</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>116.60951544732562</v>
+        <v>116.58769547212766</v>
       </c>
       <c r="B176">
-        <v>40.230614193889153</v>
+        <v>40.238459886172528</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>116.60951657386299</v>
+        <v>116.58769148334228</v>
       </c>
       <c r="B177">
-        <v>40.230583569577398</v>
+        <v>40.238429404829127</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>116.60951770039935</v>
+        <v>116.58768749456137</v>
       </c>
       <c r="B178">
-        <v>40.230552945266375</v>
+        <v>40.238398923487019</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>116.60951882693465</v>
+        <v>116.58768350578482</v>
       </c>
       <c r="B179">
-        <v>40.230522320956069</v>
+        <v>40.238368442146189</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>116.60951995346883</v>
+        <v>116.5876795170127</v>
       </c>
       <c r="B180">
-        <v>40.230491696646475</v>
+        <v>40.238337960806668</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>116.60952108000204</v>
+        <v>116.58767552824503</v>
       </c>
       <c r="B181">
-        <v>40.230461072337633</v>
+        <v>40.238307479468403</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>116.60952278876175</v>
+        <v>116.58767153948176</v>
       </c>
       <c r="B182">
-        <v>40.230453490862359</v>
+        <v>40.238276998131454</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>116.60952721649187</v>
+        <v>116.58766755072295</v>
       </c>
       <c r="B183">
-        <v>40.230446586269316</v>
+        <v>40.238246516795769</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>116.60953400448597</v>
+        <v>116.58766356196851</v>
       </c>
       <c r="B184">
-        <v>40.230440917927432</v>
+        <v>40.238216035461406</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>116.60954260282466</v>
+        <v>116.58765957321852</v>
       </c>
       <c r="B185">
-        <v>40.230436945052503</v>
+        <v>40.2381855541283</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>116.60955231492557</v>
+        <v>116.58765558447288</v>
       </c>
       <c r="B186">
-        <v>40.230434989503799</v>
+        <v>40.238155072796509</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>116.6095623539757</v>
+        <v>116.58765159573171</v>
       </c>
       <c r="B187">
-        <v>40.230435209708567</v>
+        <v>40.23812459146599</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>116.60957190667338</v>
+        <v>116.58764760699501</v>
       </c>
       <c r="B188">
-        <v>40.230437587827105</v>
+        <v>40.238094110136764</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>116.60958019911682</v>
+        <v>116.58764797729131</v>
       </c>
       <c r="B189">
-        <v>40.230441931197987</v>
+        <v>40.238096152314448</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>116.60958655950114</v>
+        <v>116.58765112445846</v>
       </c>
       <c r="B190">
-        <v>40.230447887946582</v>
+        <v>40.238103456129373</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>116.60959047254435</v>
+        <v>116.58765682753602</v>
       </c>
       <c r="B191">
-        <v>40.230454975492172</v>
+        <v>40.23810978230248</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>116.60959162123333</v>
+        <v>116.58766462449793</v>
       </c>
       <c r="B192">
-        <v>40.230462619644214</v>
+        <v>40.238114618326968</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>116.60959049472739</v>
+        <v>116.58767388368379</v>
       </c>
       <c r="B193">
-        <v>40.230493243950576</v>
+        <v>40.238117572418957</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>116.60958936822037</v>
+        <v>116.58768385497184</v>
       </c>
       <c r="B194">
-        <v>40.230523868257663</v>
+        <v>40.238118405256877</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>116.60958824171226</v>
+        <v>116.58769373054834</v>
       </c>
       <c r="B195">
-        <v>40.230554492565489</v>
+        <v>40.238117049369571</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>116.60958711520315</v>
+        <v>116.58770271035235</v>
       </c>
       <c r="B196">
-        <v>40.230585116874018</v>
+        <v>40.238113614602298</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>116.60958598869298</v>
+        <v>116.58771006689199</v>
       </c>
       <c r="B197">
-        <v>40.23061574118325</v>
+        <v>40.238108379217856</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>116.60958486218175</v>
+        <v>116.5877152041825</v>
       </c>
       <c r="B198">
-        <v>40.230646365493243</v>
+        <v>40.238101767353847</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>116.60958373566947</v>
+        <v>116.58771774004339</v>
       </c>
       <c r="B199">
-        <v>40.230676989803925</v>
+        <v>40.238088667092974</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>116.60958260915615</v>
+        <v>116.58772172882816</v>
       </c>
       <c r="B200">
-        <v>40.230707614115332</v>
+        <v>40.238119148432382</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>116.60958148264174</v>
+        <v>116.58772571761736</v>
       </c>
       <c r="B201">
-        <v>40.230738238427463</v>
+        <v>40.238149629773083</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>116.6095803561263</v>
+        <v>116.587729706411</v>
       </c>
       <c r="B202">
-        <v>40.230768862740327</v>
+        <v>40.238180111115078</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>116.60957922960982</v>
+        <v>116.58773369520905</v>
       </c>
       <c r="B203">
-        <v>40.230799487053886</v>
+        <v>40.238210592458366</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>116.60957810309226</v>
+        <v>116.5877376840115</v>
       </c>
       <c r="B204">
-        <v>40.230830111368199</v>
+        <v>40.238241073802911</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>116.60957697657368</v>
+        <v>116.58774167281834</v>
       </c>
       <c r="B205">
-        <v>40.230860735683194</v>
+        <v>40.238271555148778</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>116.60957585005401</v>
+        <v>116.58774566162967</v>
       </c>
       <c r="B206">
-        <v>40.230891359998949</v>
+        <v>40.238302036495917</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>116.6095747235333</v>
+        <v>116.58774965044539</v>
       </c>
       <c r="B207">
-        <v>40.230921984315401</v>
+        <v>40.238332517844349</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>116.60957359701156</v>
+        <v>116.58775363926551</v>
       </c>
       <c r="B208">
-        <v>40.23095260863257</v>
+        <v>40.238362999194081</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>116.60957247048873</v>
+        <v>116.58775762809003</v>
       </c>
       <c r="B209">
-        <v>40.230983232950479</v>
+        <v>40.238393480545085</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>116.60957134396484</v>
+        <v>116.58776161691902</v>
       </c>
       <c r="B210">
-        <v>40.231013857269083</v>
+        <v>40.238423961897389</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>116.60957021743994</v>
+        <v>116.58776560575241</v>
       </c>
       <c r="B211">
-        <v>40.231044481588441</v>
+        <v>40.238454443250959</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>116.60956909091394</v>
+        <v>116.58776959459021</v>
       </c>
       <c r="B212">
-        <v>40.231075105908495</v>
+        <v>40.238484924605821</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>116.6095679643869</v>
+        <v>116.58777358343245</v>
       </c>
       <c r="B213">
-        <v>40.231105730229288</v>
+        <v>40.238515405961991</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>116.60956683785882</v>
+        <v>116.58777757227909</v>
       </c>
       <c r="B214">
-        <v>40.231136354550785</v>
+        <v>40.238545887319447</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>116.60956571132964</v>
+        <v>116.58778156113014</v>
       </c>
       <c r="B215">
-        <v>40.23116697887302</v>
+        <v>40.238576368678181</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>116.60956458479944</v>
+        <v>116.58778554998565</v>
       </c>
       <c r="B216">
-        <v>40.231197603195966</v>
+        <v>40.238606850038224</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>116.6095634582682</v>
+        <v>116.58778953884554</v>
       </c>
       <c r="B217">
-        <v>40.231228227519622</v>
+        <v>40.238637331399531</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>116.60956233173593</v>
+        <v>116.58779352770986</v>
       </c>
       <c r="B218">
-        <v>40.231258851844018</v>
+        <v>40.238667812762145</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>116.60956120520258</v>
+        <v>116.58779751657859</v>
       </c>
       <c r="B219">
-        <v>40.231289476169138</v>
+        <v>40.238698294126038</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>116.60956007866817</v>
+        <v>116.58780150545176</v>
       </c>
       <c r="B220">
-        <v>40.231320100494962</v>
+        <v>40.238728775491232</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>116.6095589521327</v>
+        <v>116.58780549432937</v>
       </c>
       <c r="B221">
-        <v>40.231350724821525</v>
+        <v>40.238759256857712</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>116.60955782559616</v>
+        <v>116.58780948321134</v>
       </c>
       <c r="B222">
-        <v>40.231381349148798</v>
+        <v>40.238789738225464</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>116.60955669905859</v>
+        <v>116.58781347209775</v>
       </c>
       <c r="B223">
-        <v>40.231411973476803</v>
+        <v>40.238820219594523</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>116.60955557251999</v>
+        <v>116.58781746098862</v>
       </c>
       <c r="B224">
-        <v>40.231442597805511</v>
+        <v>40.238850700964854</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>116.60955444598031</v>
+        <v>116.5878214498839</v>
       </c>
       <c r="B225">
-        <v>40.231473222134973</v>
+        <v>40.238881182336492</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>116.60955331943958</v>
+        <v>116.58782543878354</v>
       </c>
       <c r="B226">
-        <v>40.231503846465131</v>
+        <v>40.238911663709423</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>116.60955219289779</v>
+        <v>116.58782942768762</v>
       </c>
       <c r="B227">
-        <v>40.231534470796021</v>
+        <v>40.238942145083641</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>116.60955106635498</v>
+        <v>116.58783341659614</v>
       </c>
       <c r="B228">
-        <v>40.231565095127635</v>
+        <v>40.238972626459152</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>116.60954993981106</v>
+        <v>116.58783595248632</v>
       </c>
       <c r="B229">
-        <v>40.231595719459968</v>
+        <v>40.238959526200688</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>116.60954881326612</v>
+        <v>116.58784108986866</v>
       </c>
       <c r="B230">
-        <v>40.231626343793017</v>
+        <v>40.238952914356219</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>116.60954768672006</v>
+        <v>116.58784844655048</v>
       </c>
       <c r="B231">
-        <v>40.231656968126813</v>
+        <v>40.238947679005868</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>116.60954656017303</v>
+        <v>116.58785742654064</v>
       </c>
       <c r="B232">
-        <v>40.231687592461292</v>
+        <v>40.238944244287431</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>116.60954543362492</v>
+        <v>116.58786730233732</v>
       </c>
       <c r="B233">
-        <v>40.231718216796544</v>
+        <v>40.238942888462148</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>116.60954430707577</v>
+        <v>116.58787727386523</v>
       </c>
       <c r="B234">
-        <v>40.231748841132479</v>
+        <v>40.238943721371299</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>116.60954318052553</v>
+        <v>116.58788653329195</v>
       </c>
       <c r="B235">
-        <v>40.231779465469153</v>
+        <v>40.238946675537278</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>116.60954205397427</v>
+        <v>116.58789433047383</v>
       </c>
       <c r="B236">
-        <v>40.23181008980653</v>
+        <v>40.238951511630447</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>116.60954092742196</v>
+        <v>116.58790003372827</v>
       </c>
       <c r="B237">
-        <v>40.231840714144653</v>
+        <v>40.238957837858422</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>116.60953980086857</v>
+        <v>116.58790318100955</v>
       </c>
       <c r="B238">
-        <v>40.231871338483501</v>
+        <v>40.238965141707226</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>116.60953867431415</v>
+        <v>116.58790355132376</v>
       </c>
       <c r="B239">
-        <v>40.231901962823052</v>
+        <v>40.238967183889727</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>116.60953754775868</v>
+        <v>116.58789956236721</v>
       </c>
       <c r="B240">
-        <v>40.23193258716335</v>
+        <v>40.238936702504041</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>116.60953642120212</v>
+        <v>116.58789557341507</v>
       </c>
       <c r="B241">
-        <v>40.23196321150435</v>
+        <v>40.238906221119642</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>116.60953529464453</v>
+        <v>116.58789158446737</v>
       </c>
       <c r="B242">
-        <v>40.23199383584609</v>
+        <v>40.238875739736528</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>116.60953416808589</v>
+        <v>116.58788759552409</v>
       </c>
       <c r="B243">
-        <v>40.232024460188534</v>
+        <v>40.238845258354701</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>116.60953304152619</v>
+        <v>116.58788360658521</v>
       </c>
       <c r="B244">
-        <v>40.23205508453173</v>
+        <v>40.238814776974174</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>116.60953191496543</v>
+        <v>116.58787961765076</v>
       </c>
       <c r="B245">
-        <v>40.232085708875637</v>
+        <v>40.238784295594932</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>116.60953078840363</v>
+        <v>116.58787562872072</v>
       </c>
       <c r="B246">
-        <v>40.232116333220247</v>
+        <v>40.238753814216984</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>116.60952966184077</v>
+        <v>116.58787163979511</v>
       </c>
       <c r="B247">
-        <v>40.232146957565625</v>
+        <v>40.238723332840316</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>116.60952853527684</v>
+        <v>116.58786765087395</v>
       </c>
       <c r="B248">
-        <v>40.232177581911671</v>
+        <v>40.23869285146494</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>116.60952740871187</v>
+        <v>116.58786366195716</v>
       </c>
       <c r="B249">
-        <v>40.232208206258484</v>
+        <v>40.238662370090864</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>116.60952628214584</v>
+        <v>116.58785967304479</v>
       </c>
       <c r="B250">
-        <v>40.232238830606001</v>
+        <v>40.238631888718068</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>116.60952515557877</v>
+        <v>116.58785568413685</v>
       </c>
       <c r="B251">
-        <v>40.232269454954263</v>
+        <v>40.238601407346565</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>116.60952402901061</v>
+        <v>116.58785169523337</v>
       </c>
       <c r="B252">
-        <v>40.232300079303215</v>
+        <v>40.238570925976347</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>116.60952290244144</v>
+        <v>116.58784770633424</v>
       </c>
       <c r="B253">
-        <v>40.23233070365292</v>
+        <v>40.238540444607423</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>116.60952177587122</v>
+        <v>116.58784371743954</v>
       </c>
       <c r="B254">
-        <v>40.232361328003329</v>
+        <v>40.238509963239778</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>116.60952064929991</v>
+        <v>116.58783972854928</v>
       </c>
       <c r="B255">
-        <v>40.23239195235449</v>
+        <v>40.238479481873433</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>116.60951952272757</v>
+        <v>116.58783573966346</v>
       </c>
       <c r="B256">
-        <v>40.232422576706362</v>
+        <v>40.238449000508375</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>116.60951839615416</v>
+        <v>116.58783175078203</v>
       </c>
       <c r="B257">
-        <v>40.232453201058945</v>
+        <v>40.238418519144602</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>116.60951726957971</v>
+        <v>116.58782776190505</v>
       </c>
       <c r="B258">
-        <v>40.232483825412267</v>
+        <v>40.238388037782116</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>116.6095161430042</v>
+        <v>116.58782377303244</v>
       </c>
       <c r="B259">
-        <v>40.232514449766306</v>
+        <v>40.238357556420915</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>116.60951501642764</v>
+        <v>116.58781978416431</v>
       </c>
       <c r="B260">
-        <v>40.232545074121077</v>
+        <v>40.238327075061001</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>116.60951388985004</v>
+        <v>116.58781579530056</v>
       </c>
       <c r="B261">
-        <v>40.232575698476566</v>
+        <v>40.238296593702387</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>116.60951276327135</v>
+        <v>116.5878118064412</v>
       </c>
       <c r="B262">
-        <v>40.232606322832801</v>
+        <v>40.238266112345059</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>116.60951163669164</v>
+        <v>116.58780781758632</v>
       </c>
       <c r="B263">
-        <v>40.232636947189732</v>
+        <v>40.238235630989024</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>116.60951051011088</v>
+        <v>116.58780382873584</v>
       </c>
       <c r="B264">
-        <v>40.232667571547402</v>
+        <v>40.238205149634268</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>116.60950938352903</v>
+        <v>116.58779983988978</v>
       </c>
       <c r="B265">
-        <v>40.232698195905805</v>
+        <v>40.238174668280806</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>116.60950825694614</v>
+        <v>116.58779585104811</v>
       </c>
       <c r="B266">
-        <v>40.23272882026491</v>
+        <v>40.238144186928622</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>116.60950713036219</v>
+        <v>116.58779186221088</v>
       </c>
       <c r="B267">
-        <v>40.232759444624747</v>
+        <v>40.238113705577739</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>116.60950600377718</v>
+        <v>116.58778787337808</v>
       </c>
       <c r="B268">
-        <v>40.232790068985317</v>
+        <v>40.238083224228134</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>116.60950487719116</v>
+        <v>116.5877882436817</v>
       </c>
       <c r="B269">
-        <v>40.232820693346625</v>
+        <v>40.238085266407715</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>116.60950375060406</v>
+        <v>116.58779139089009</v>
       </c>
       <c r="B270">
-        <v>40.232851317708629</v>
+        <v>40.23809257023872</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>116.60950262401587</v>
+        <v>116.58779709402816</v>
       </c>
       <c r="B271">
-        <v>40.232881942071387</v>
+        <v>40.238098896440938</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>116.60950149742669</v>
+        <v>116.58780489106493</v>
       </c>
       <c r="B272">
-        <v>40.232912566434855</v>
+        <v>40.238103732505209</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>116.60950037083644</v>
+        <v>116.58781415033403</v>
       </c>
       <c r="B273">
-        <v>40.232943190799062</v>
+        <v>40.23810668664445</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>116.60949924424513</v>
+        <v>116.58782412170675</v>
       </c>
       <c r="B274">
-        <v>40.232973815163973</v>
+        <v>40.238107519533273</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>116.60949811765275</v>
+        <v>116.58783399736269</v>
       </c>
       <c r="B275">
-        <v>40.233004439529623</v>
+        <v>40.238106163696372</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>116.60949699105932</v>
+        <v>116.5878429772343</v>
       </c>
       <c r="B276">
-        <v>40.233035063896011</v>
+        <v>40.238102728974923</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>116.60949813977291</v>
+        <v>116.58785033382438</v>
       </c>
       <c r="B277">
-        <v>40.233042708058946</v>
+        <v>40.238097493628011</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>116.60950205293442</v>
+        <v>116.58785547114402</v>
       </c>
       <c r="B278">
-        <v>40.233049795606988</v>
+        <v>40.238090881790235</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>116.6095084135257</v>
+        <v>116.58785800699901</v>
       </c>
       <c r="B279">
-        <v>40.233055752351291</v>
+        <v>40.238077781542287</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>116.60951670625315</v>
+        <v>116.58786199587986</v>
       </c>
       <c r="B280">
-        <v>40.233060095714222</v>
+        <v>40.238108262902067</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>116.60952625929247</v>
+        <v>116.58786598476513</v>
       </c>
       <c r="B281">
-        <v>40.233062473824397</v>
+        <v>40.238138744263154</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>116.60953629871553</v>
+        <v>116.5878699736548</v>
       </c>
       <c r="B282">
-        <v>40.233062694022628</v>
+        <v>40.238169225625512</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>116.60954601118881</v>
+        <v>116.58787396254893</v>
       </c>
       <c r="B283">
-        <v>40.233060738469909</v>
+        <v>40.238199706989171</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>116.60955460986527</v>
+        <v>116.58787795144744</v>
       </c>
       <c r="B284">
-        <v>40.233056765592465</v>
+        <v>40.238230188354109</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>116.60956139813004</v>
+        <v>116.58788194035036</v>
       </c>
       <c r="B285">
-        <v>40.233051097247312</v>
+        <v>40.238260669720333</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>116.60956582603721</v>
+        <v>116.58788592925774</v>
       </c>
       <c r="B286">
-        <v>40.233044192647739</v>
+        <v>40.238291151087864</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>116.60956753486357</v>
+        <v>116.58788991816951</v>
       </c>
       <c r="B287">
-        <v>40.233036611161062</v>
+        <v>40.238321632456667</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>116.60956866142975</v>
+        <v>116.58789390708573</v>
       </c>
       <c r="B288">
-        <v>40.233005986797181</v>
+        <v>40.238352113826743</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>116.60956978799491</v>
+        <v>116.5878978960063</v>
       </c>
       <c r="B289">
-        <v>40.232975362434033</v>
+        <v>40.238382595198132</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>116.60957091455901</v>
+        <v>116.58790188493136</v>
       </c>
       <c r="B290">
-        <v>40.232944738071588</v>
+        <v>40.238413076570815</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>116.60957204112205</v>
+        <v>116.58790587386083</v>
       </c>
       <c r="B291">
-        <v>40.232914113709889</v>
+        <v>40.238443557944755</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>116.60957316768408</v>
+        <v>116.58790986279469</v>
       </c>
       <c r="B292">
-        <v>40.232883489348907</v>
+        <v>40.23847403932001</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>116.60957429424502</v>
+        <v>116.58791385173299</v>
       </c>
       <c r="B293">
-        <v>40.232852864988651</v>
+        <v>40.238504520696559</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>116.60957542080486</v>
+        <v>116.58791784067573</v>
       </c>
       <c r="B294">
-        <v>40.23282224062914</v>
+        <v>40.238535002074379</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>116.60957654736367</v>
+        <v>116.58792182962284</v>
       </c>
       <c r="B295">
-        <v>40.232791616270326</v>
+        <v>40.238565483453506</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>116.60957767392145</v>
+        <v>116.58792581857438</v>
       </c>
       <c r="B296">
-        <v>40.232760991912258</v>
+        <v>40.238595964833898</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>116.60957880047818</v>
+        <v>116.58792980753033</v>
       </c>
       <c r="B297">
-        <v>40.2327303675549</v>
+        <v>40.238626446215584</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>116.60957992703383</v>
+        <v>116.58793379649073</v>
       </c>
       <c r="B298">
-        <v>40.232699743198289</v>
+        <v>40.238656927598569</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>116.60958105358847</v>
+        <v>116.58793778545555</v>
       </c>
       <c r="B299">
-        <v>40.232669118842388</v>
+        <v>40.238687408982848</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>116.60958218014198</v>
+        <v>116.58794177442478</v>
       </c>
       <c r="B300">
-        <v>40.232638494487212</v>
+        <v>40.238717890368406</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>116.6095833066945</v>
+        <v>116.58794576339842</v>
       </c>
       <c r="B301">
-        <v>40.232607870132746</v>
+        <v>40.238748371755264</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>116.60958443324594</v>
+        <v>116.58794975237649</v>
       </c>
       <c r="B302">
-        <v>40.232577245779034</v>
+        <v>40.238778853143401</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>116.60958555979634</v>
+        <v>116.58795374135897</v>
       </c>
       <c r="B303">
-        <v>40.232546621426017</v>
+        <v>40.238809334532839</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>116.60958668634568</v>
+        <v>116.58795773034589</v>
       </c>
       <c r="B304">
-        <v>40.232515997073762</v>
+        <v>40.238839815923548</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>116.60958781289396</v>
+        <v>116.58796171933722</v>
       </c>
       <c r="B305">
-        <v>40.232485372722209</v>
+        <v>40.238870297315565</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>116.60958893944121</v>
+        <v>116.58796570833294</v>
       </c>
       <c r="B306">
-        <v>40.232454748371381</v>
+        <v>40.23890077870886</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>116.60959006598738</v>
+        <v>116.58796969733309</v>
       </c>
       <c r="B307">
-        <v>40.232424124021286</v>
+        <v>40.238931260103449</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>116.60959119253249</v>
+        <v>116.58797368633768</v>
       </c>
       <c r="B308">
-        <v>40.232393499671907</v>
+        <v>40.238961741499331</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>116.60959231907661</v>
+        <v>116.58797622222194</v>
       </c>
       <c r="B309">
-        <v>40.232362875323254</v>
+        <v>40.238948641253813</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>116.60959344561961</v>
+        <v>116.5879813596334</v>
       </c>
       <c r="B310">
-        <v>40.232332250975332</v>
+        <v>40.238942029435577</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>116.60959457216157</v>
+        <v>116.58798871636571</v>
       </c>
       <c r="B311">
-        <v>40.232301626628129</v>
+        <v>40.238936794122772</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>116.60959569870249</v>
+        <v>116.58799769642351</v>
       </c>
       <c r="B312">
-        <v>40.232271002281649</v>
+        <v>40.238933359450186</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>116.60959682524233</v>
+        <v>116.58800757229965</v>
       </c>
       <c r="B313">
-        <v>40.232240377935902</v>
+        <v>40.238932003675323</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>116.60959795178117</v>
+        <v>116.58801754391226</v>
       </c>
       <c r="B314">
-        <v>40.23220975359088</v>
+        <v>40.238932836635357</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>116.60959907831891</v>
+        <v>116.58802680342218</v>
       </c>
       <c r="B315">
-        <v>40.232179129246553</v>
+        <v>40.238935790848608</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>116.60960020485558</v>
+        <v>116.58803460067895</v>
       </c>
       <c r="B316">
-        <v>40.23214850490298</v>
+        <v>40.238940626981595</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>116.60960133139122</v>
+        <v>116.58804030399395</v>
       </c>
       <c r="B317">
-        <v>40.232117880560118</v>
+        <v>40.238946953238681</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>116.60960245792579</v>
+        <v>116.58804345131647</v>
       </c>
       <c r="B318">
-        <v>40.232087256217994</v>
+        <v>40.238954257103551</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>116.60960358445935</v>
+        <v>116.58804382163798</v>
       </c>
       <c r="B319">
-        <v>40.232056631876574</v>
+        <v>40.238956299287956</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>116.60960471099182</v>
+        <v>116.58803983258537</v>
       </c>
       <c r="B320">
-        <v>40.2320260075359</v>
+        <v>40.238925817881871</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>116.60960583752323</v>
+        <v>116.58803584353714</v>
       </c>
       <c r="B321">
-        <v>40.23199538319593</v>
+        <v>40.238895336477093</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>116.6096069640536</v>
+        <v>116.58803185449338</v>
       </c>
       <c r="B322">
-        <v>40.231964758856684</v>
+        <v>40.238864855073601</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>116.60960809058292</v>
+        <v>116.58802786545402</v>
       </c>
       <c r="B323">
-        <v>40.231934134518177</v>
+        <v>40.238834373671416</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>116.6096092171112</v>
+        <v>116.58802387641909</v>
       </c>
       <c r="B324">
-        <v>40.231903510180373</v>
+        <v>40.238803892270504</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>116.60961034363842</v>
+        <v>116.58801988738853</v>
       </c>
       <c r="B325">
-        <v>40.231872885843316</v>
+        <v>40.238773410870884</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>116.60961147016455</v>
+        <v>116.58801589836243</v>
       </c>
       <c r="B326">
-        <v>40.231842261506962</v>
+        <v>40.238742929472551</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>116.60961259668971</v>
+        <v>116.58801190934074</v>
       </c>
       <c r="B327">
-        <v>40.23181163717134</v>
+        <v>40.238712448075518</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>116.60961372321374</v>
+        <v>116.58800792032349</v>
       </c>
       <c r="B328">
-        <v>40.231781012836436</v>
+        <v>40.238681966679749</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>116.60961484973673</v>
+        <v>116.58800393131065</v>
       </c>
       <c r="B329">
-        <v>40.231750388502263</v>
+        <v>40.238651485285303</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>116.60961597625867</v>
+        <v>116.5879999423022</v>
       </c>
       <c r="B330">
-        <v>40.231719764168801</v>
+        <v>40.238621003892128</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>116.60961710277958</v>
+        <v>116.58799595329823</v>
       </c>
       <c r="B331">
-        <v>40.231689139836071</v>
+        <v>40.23859052250026</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>116.60961822929939</v>
+        <v>116.58799196429864</v>
       </c>
       <c r="B332">
-        <v>40.231658515504066</v>
+        <v>40.238560041109658</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>116.60961935581817</v>
+        <v>116.58798797530346</v>
       </c>
       <c r="B333">
-        <v>40.231627891172778</v>
+        <v>40.238529559720348</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>116.6096204823359</v>
+        <v>116.58798398631271</v>
       </c>
       <c r="B334">
-        <v>40.231597266842215</v>
+        <v>40.238499078332325</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>116.60962160885255</v>
+        <v>116.58797999732639</v>
       </c>
       <c r="B335">
-        <v>40.231566642512377</v>
+        <v>40.238468596945602</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>116.60962273536816</v>
+        <v>116.58797600834446</v>
       </c>
       <c r="B336">
-        <v>40.231536018183263</v>
+        <v>40.238438115560164</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>116.60962386188275</v>
+        <v>116.587972019367</v>
       </c>
       <c r="B337">
-        <v>40.23150539385486</v>
+        <v>40.238407634176021</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>116.60962498839625</v>
+        <v>116.58796803039392</v>
       </c>
       <c r="B338">
-        <v>40.231474769527189</v>
+        <v>40.238377152793156</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>116.60962611490872</v>
+        <v>116.58796404142528</v>
       </c>
       <c r="B339">
-        <v>40.231444145200221</v>
+        <v>40.238346671411591</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>116.60962724142011</v>
+        <v>116.58796005246103</v>
       </c>
       <c r="B340">
-        <v>40.231413520874007</v>
+        <v>40.238316190031306</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>116.60962836793047</v>
+        <v>116.58795606350125</v>
       </c>
       <c r="B341">
-        <v>40.231382896548489</v>
+        <v>40.238285708652313</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>116.60962949443977</v>
+        <v>116.58795207454585</v>
       </c>
       <c r="B342">
-        <v>40.231352272223717</v>
+        <v>40.2382552272746</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>116.60963062094801</v>
+        <v>116.58794808559486</v>
       </c>
       <c r="B343">
-        <v>40.231321647899641</v>
+        <v>40.238224745898187</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>116.6096317474552</v>
+        <v>116.58794409664831</v>
       </c>
       <c r="B344">
-        <v>40.231291023576318</v>
+        <v>40.238194264523052</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>116.60963287396135</v>
+        <v>116.58794010770616</v>
       </c>
       <c r="B345">
-        <v>40.231260399253678</v>
+        <v>40.238163783149211</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>116.60963400046644</v>
+        <v>116.58793611876847</v>
       </c>
       <c r="B346">
-        <v>40.231229774931784</v>
+        <v>40.238133301776656</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>116.60963512697045</v>
+        <v>116.58793212983515</v>
       </c>
       <c r="B347">
-        <v>40.231199150610607</v>
+        <v>40.238102820405395</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>116.60963625347344</v>
+        <v>116.58792814090627</v>
       </c>
       <c r="B348">
-        <v>40.231168526290162</v>
+        <v>40.238072339035419</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>116.60963737997534</v>
+        <v>116.5879285112172</v>
       </c>
       <c r="B349">
-        <v>40.231137901970421</v>
+        <v>40.238074381216883</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>116.60963850647624</v>
+        <v>116.58793165846689</v>
       </c>
       <c r="B350">
-        <v>40.231107277651404</v>
+        <v>40.238081685063968</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>116.609639632976</v>
+        <v>116.58793736166547</v>
       </c>
       <c r="B351">
-        <v>40.231076653333112</v>
+        <v>40.238088011295282</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>116.6096407594748</v>
+        <v>116.58794515877712</v>
       </c>
       <c r="B352">
-        <v>40.231046029015545</v>
+        <v>40.238092847399386</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>116.60964188597248</v>
+        <v>116.58795441812939</v>
       </c>
       <c r="B353">
-        <v>40.231015404698695</v>
+        <v>40.238095801585885</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>116.60964301246914</v>
+        <v>116.58796438958683</v>
       </c>
       <c r="B354">
-        <v>40.230984780382578</v>
+        <v>40.23809663452559</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>116.60964413896475</v>
+        <v>116.58797426532217</v>
       </c>
       <c r="B355">
-        <v>40.230954156067163</v>
+        <v>40.238095278739117</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>116.60964526545926</v>
+        <v>116.58798324526146</v>
       </c>
       <c r="B356">
-        <v>40.230923531752495</v>
+        <v>40.23809184406349</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>116.60964639195277</v>
+        <v>116.58799060190198</v>
       </c>
       <c r="B357">
-        <v>40.230892907438509</v>
+        <v>40.238086608754145</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>116.6096475184452</v>
+        <v>116.58799573925077</v>
       </c>
       <c r="B358">
-        <v>40.230862283125276</v>
+        <v>40.238079996942567</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>116.60964864493657</v>
+        <v>116.58799827509986</v>
       </c>
       <c r="B359">
-        <v>40.230831658812747</v>
+        <v>40.238066896707572</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>116.60964977142692</v>
+        <v>116.58800226407678</v>
       </c>
       <c r="B360">
-        <v>40.230801034500949</v>
+        <v>40.238097378087737</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>116.60965089791617</v>
+        <v>116.58800625305813</v>
       </c>
       <c r="B361">
-        <v>40.230770410189869</v>
+        <v>40.238127859469195</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>116.60965202440441</v>
+        <v>116.58801024204385</v>
       </c>
       <c r="B362">
-        <v>40.2307397858795</v>
+        <v>40.238158340851932</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>116.6096531508916</v>
+        <v>116.58801423103404</v>
       </c>
       <c r="B363">
-        <v>40.23070916156987</v>
+        <v>40.238188822235962</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>116.60965427737771</v>
+        <v>116.5880182200286</v>
       </c>
       <c r="B364">
-        <v>40.230678537260957</v>
+        <v>40.238219303621278</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>116.60965540386276</v>
+        <v>116.58802220902764</v>
       </c>
       <c r="B365">
-        <v>40.23064791295274</v>
+        <v>40.238249785007881</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>116.60965653034677</v>
+        <v>116.58802619803106</v>
       </c>
       <c r="B366">
-        <v>40.23061728864527</v>
+        <v>40.23828026639579</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>116.60965765682973</v>
+        <v>116.58803018703892</v>
       </c>
       <c r="B367">
-        <v>40.23058666433851</v>
+        <v>40.238310747784958</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>116.60965878331162</v>
+        <v>116.58803417605115</v>
       </c>
       <c r="B368">
-        <v>40.230556040032468</v>
+        <v>40.23834122917544</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>116.60965990979247</v>
+        <v>116.58803816506787</v>
       </c>
       <c r="B369">
-        <v>40.230525415727151</v>
+        <v>40.238371710567208</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>116.60966103627226</v>
+        <v>116.58804215408897</v>
       </c>
       <c r="B370">
-        <v>40.230494791422544</v>
+        <v>40.238402191960255</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>116.60966216275101</v>
+        <v>116.5880461431145</v>
       </c>
       <c r="B371">
-        <v>40.230464167118669</v>
+        <v>40.238432673354573</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>116.60966328922868</v>
+        <v>116.58805013214442</v>
       </c>
       <c r="B372">
-        <v>40.23043354281549</v>
+        <v>40.238463154750214</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>116.60966499798569</v>
+        <v>116.5880541211788</v>
       </c>
       <c r="B373">
-        <v>40.23042596134853</v>
+        <v>40.238493636147119</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>116.60966942573532</v>
+        <v>116.5880581102176</v>
       </c>
       <c r="B374">
-        <v>40.230419056776789</v>
+        <v>40.238524117545346</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>116.60967621376976</v>
+        <v>116.58806209926078</v>
       </c>
       <c r="B375">
-        <v>40.230413388467511</v>
+        <v>40.23855459894483</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>116.60968481216618</v>
+        <v>116.58806608830839</v>
       </c>
       <c r="B376">
-        <v>40.230409415633858</v>
+        <v>40.238585080345622</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>116.60969452433766</v>
+        <v>116.58807007736044</v>
       </c>
       <c r="B377">
-        <v>40.230407460131723</v>
+        <v>40.238615561747686</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>116.60970456346539</v>
+        <v>116.58807406641692</v>
       </c>
       <c r="B378">
-        <v>40.230407680384609</v>
+        <v>40.238646043151057</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>116.60971411624145</v>
+        <v>116.58807805547778</v>
       </c>
       <c r="B379">
-        <v>40.230410058548912</v>
+        <v>40.238676524555707</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>116.60972240875775</v>
+        <v>116.58808204454309</v>
       </c>
       <c r="B380">
-        <v>40.2304144019595</v>
+        <v>40.238707005961651</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>116.6097287692034</v>
+        <v>116.58808603361281</v>
       </c>
       <c r="B381">
-        <v>40.230420358738506</v>
+        <v>40.238737487368873</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>116.60973268229154</v>
+        <v>116.58809002268696</v>
       </c>
       <c r="B382">
-        <v>40.230427446302798</v>
+        <v>40.238767968777402</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>116.60973383100534</v>
+        <v>116.58809401176553</v>
       </c>
       <c r="B383">
-        <v>40.230435090460226</v>
+        <v>40.238798450187211</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>116.60973270455489</v>
+        <v>116.5880980008485</v>
       </c>
       <c r="B384">
-        <v>40.230465714760903</v>
+        <v>40.238828931598306</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>116.60973157810335</v>
+        <v>116.58810198993591</v>
       </c>
       <c r="B385">
-        <v>40.230496339062292</v>
+        <v>40.238859413010701</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>116.60973045165082</v>
+        <v>116.58810597902773</v>
       </c>
       <c r="B386">
-        <v>40.230526963364404</v>
+        <v>40.238889894424382</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>116.60972932519718</v>
+        <v>116.58810996812396</v>
       </c>
       <c r="B387">
-        <v>40.230557587667235</v>
+        <v>40.238920375839349</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>116.6097281987425</v>
+        <v>116.58811395722464</v>
       </c>
       <c r="B388">
-        <v>40.230588211970769</v>
+        <v>40.238950857255617</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>116.60972707228676</v>
+        <v>116.58811649310299</v>
       </c>
       <c r="B389">
-        <v>40.230618836275049</v>
+        <v>40.238937757023038</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>116.60972594583001</v>
+        <v>116.5881216305436</v>
       </c>
       <c r="B390">
-        <v>40.230649460580025</v>
+        <v>40.238931145231</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>116.60972481937215</v>
+        <v>116.58812898732633</v>
       </c>
       <c r="B391">
-        <v>40.230680084885748</v>
+        <v>40.238925909955775</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>116.60972369291328</v>
+        <v>116.58813796745181</v>
       </c>
       <c r="B392">
-        <v>40.230710709192159</v>
+        <v>40.238922475329026</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>116.60972256645333</v>
+        <v>116.58814784340737</v>
       </c>
       <c r="B393">
-        <v>40.230741333499338</v>
+        <v>40.238921119604591</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>116.60972143999233</v>
+        <v>116.58815781510475</v>
       </c>
       <c r="B394">
-        <v>40.2307719578072</v>
+        <v>40.238921952615556</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>116.60972031353027</v>
+        <v>116.58816707469782</v>
       </c>
       <c r="B395">
-        <v>40.2308025821158</v>
+        <v>40.238924906876065</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>116.60971918706716</v>
+        <v>116.58817487202953</v>
       </c>
       <c r="B396">
-        <v>40.230833206425096</v>
+        <v>40.238929743048871</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>116.60971806060303</v>
+        <v>116.58818057540505</v>
       </c>
       <c r="B397">
-        <v>40.230863830735139</v>
+        <v>40.238936069335082</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>116.60971693413779</v>
+        <v>116.58818372276882</v>
       </c>
       <c r="B398">
-        <v>40.230894455045892</v>
+        <v>40.238943373216031</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>116.60971580767155</v>
+        <v>116.58818409309765</v>
       </c>
       <c r="B399">
-        <v>40.23092507935737</v>
+        <v>40.238945415402334</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>116.6097146812042</v>
+        <v>116.58818010394896</v>
       </c>
       <c r="B400">
-        <v>40.230955703669551</v>
+        <v>40.23891493397587</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>116.60971355473585</v>
+        <v>116.58817611480468</v>
       </c>
       <c r="B401">
-        <v>40.230986327982478</v>
+        <v>40.238884452550707</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>116.60971242826641</v>
+        <v>116.5881721256648</v>
       </c>
       <c r="B402">
-        <v>40.231016952296109</v>
+        <v>40.238853971126829</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>116.60971130179591</v>
+        <v>116.58816813652935</v>
       </c>
       <c r="B403">
-        <v>40.231047576610457</v>
+        <v>40.238823489704245</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>116.60971017532437</v>
+        <v>116.58816414739833</v>
       </c>
       <c r="B404">
-        <v>40.231078200925545</v>
+        <v>40.238793008282961</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>116.6097090488518</v>
+        <v>116.58816015827176</v>
       </c>
       <c r="B405">
-        <v>40.23110882524135</v>
+        <v>40.238762526862956</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>116.60970792237815</v>
+        <v>116.58815616914958</v>
       </c>
       <c r="B406">
-        <v>40.231139449557872</v>
+        <v>40.238732045444245</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>116.60970679590345</v>
+        <v>116.58815218003178</v>
       </c>
       <c r="B407">
-        <v>40.231170073875113</v>
+        <v>40.238701564026826</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>116.60970566942773</v>
+        <v>116.58814819091847</v>
       </c>
       <c r="B408">
-        <v>40.231200698193078</v>
+        <v>40.238671082610679</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>116.60970454295094</v>
+        <v>116.58814420180957</v>
       </c>
       <c r="B409">
-        <v>40.231231322511761</v>
+        <v>40.238640601195847</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>116.60970341647305</v>
+        <v>116.58814021270504</v>
       </c>
       <c r="B410">
-        <v>40.231261946831168</v>
+        <v>40.238610119782294</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>116.60970228999415</v>
+        <v>116.58813622360498</v>
       </c>
       <c r="B411">
-        <v>40.231292571151315</v>
+        <v>40.238579638370034</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>116.60970116351417</v>
+        <v>116.5881322345093</v>
       </c>
       <c r="B412">
-        <v>40.231323195472136</v>
+        <v>40.23854915695906</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>116.60970003703316</v>
+        <v>116.58812824541805</v>
       </c>
       <c r="B413">
-        <v>40.231353819793732</v>
+        <v>40.238518675549358</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>116.60969891055109</v>
+        <v>116.58812425633123</v>
       </c>
       <c r="B414">
-        <v>40.23138444411601</v>
+        <v>40.238488194140963</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>116.60969778406796</v>
+        <v>116.58812026724881</v>
       </c>
       <c r="B415">
-        <v>40.231415068439034</v>
+        <v>40.238457712733869</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>116.60969665758378</v>
+        <v>116.58811627817086</v>
       </c>
       <c r="B416">
-        <v>40.231445692762762</v>
+        <v>40.238427231328053</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>116.60969553109855</v>
+        <v>116.58811228909727</v>
       </c>
       <c r="B417">
-        <v>40.231476317087228</v>
+        <v>40.238396749923524</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>116.60969440461224</v>
+        <v>116.58810830002815</v>
       </c>
       <c r="B418">
-        <v>40.231506941412412</v>
+        <v>40.238366268520274</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>116.60969327812491</v>
+        <v>116.58810431096343</v>
       </c>
       <c r="B419">
-        <v>40.231537565738307</v>
+        <v>40.238335787118324</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>116.60969215163651</v>
+        <v>116.58810032190313</v>
       </c>
       <c r="B420">
-        <v>40.231568190064955</v>
+        <v>40.238305305717653</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>116.60969102514704</v>
+        <v>116.58809633284726</v>
       </c>
       <c r="B421">
-        <v>40.231598814392292</v>
+        <v>40.238274824318282</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>116.60968989865653</v>
+        <v>116.58809234379576</v>
       </c>
       <c r="B422">
-        <v>40.231629438720368</v>
+        <v>40.23824434292019</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>116.60968877216501</v>
+        <v>116.58808835474875</v>
       </c>
       <c r="B423">
-        <v>40.231660063049169</v>
+        <v>40.238213861523413</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>116.60968764567237</v>
+        <v>116.58808436570608</v>
       </c>
       <c r="B424">
-        <v>40.231690687378688</v>
+        <v>40.238183380127893</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>116.60968651917871</v>
+        <v>116.5880803766679</v>
       </c>
       <c r="B425">
-        <v>40.231721311708931</v>
+        <v>40.238152898733688</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>116.609685392684</v>
+        <v>116.5880763876341</v>
       </c>
       <c r="B426">
-        <v>40.231751936039885</v>
+        <v>40.238122417340747</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>116.60968426618824</v>
+        <v>116.58807239860475</v>
       </c>
       <c r="B427">
-        <v>40.231782560371578</v>
+        <v>40.238091935949093</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>116.60968313969143</v>
+        <v>116.5880684095798</v>
       </c>
       <c r="B428">
-        <v>40.231813184703974</v>
+        <v>40.238061454558732</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>116.60968201319355</v>
+        <v>116.58806877989798</v>
       </c>
       <c r="B429">
-        <v>40.231843809037116</v>
+        <v>40.238063496742093</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>116.60968088669462</v>
+        <v>116.58807192718895</v>
       </c>
       <c r="B430">
-        <v>40.231874433370969</v>
+        <v>40.238070800605229</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>116.60967976019462</v>
+        <v>116.58807763044807</v>
       </c>
       <c r="B431">
-        <v>40.231905057705546</v>
+        <v>40.238077126865662</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>116.60967863369359</v>
+        <v>116.58808542763458</v>
       </c>
       <c r="B432">
-        <v>40.231935682040849</v>
+        <v>40.238081963009584</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>116.60967750719146</v>
+        <v>116.58809468707007</v>
       </c>
       <c r="B433">
-        <v>40.231966306376876</v>
+        <v>40.238084917243356</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>116.60967638068834</v>
+        <v>116.58810465861228</v>
       </c>
       <c r="B434">
-        <v>40.231996930713606</v>
+        <v>40.238085750233978</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>116.60967525418413</v>
+        <v>116.58811453442701</v>
       </c>
       <c r="B435">
-        <v>40.232027555051104</v>
+        <v>40.238084394497903</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>116.60967412767886</v>
+        <v>116.58812351443399</v>
       </c>
       <c r="B436">
-        <v>40.232058179389291</v>
+        <v>40.238080959868135</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>116.60967300117257</v>
+        <v>116.58813087112496</v>
       </c>
       <c r="B437">
-        <v>40.23208880372821</v>
+        <v>40.238075724596342</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>116.60967187466517</v>
+        <v>116.58813600850287</v>
       </c>
       <c r="B438">
-        <v>40.232119428067854</v>
+        <v>40.238069112811012</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>116.6096707481568</v>
+        <v>116.58825422925707</v>
       </c>
       <c r="B439">
-        <v>40.232150052408223</v>
+        <v>40.238939973728094</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>116.60966962164733</v>
+        <v>116.58825024006033</v>
       </c>
       <c r="B440">
-        <v>40.232180676749309</v>
+        <v>40.238909492291448</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>116.60966849513679</v>
+        <v>116.58824625086802</v>
       </c>
       <c r="B441">
-        <v>40.232211301091134</v>
+        <v>40.238879010856095</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>116.6096673686252</v>
+        <v>116.58824226168012</v>
       </c>
       <c r="B442">
-        <v>40.232241925433662</v>
+        <v>40.238848529422029</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>116.60966624211258</v>
+        <v>116.58823827249664</v>
       </c>
       <c r="B443">
-        <v>40.23227254977693</v>
+        <v>40.238818047989263</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>116.6096651155989</v>
+        <v>116.58823428331755</v>
       </c>
       <c r="B444">
-        <v>40.232303174120922</v>
+        <v>40.238787566557782</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>116.60966398908417</v>
+        <v>116.58823029414295</v>
       </c>
       <c r="B445">
-        <v>40.232333798465625</v>
+        <v>40.238757085127588</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>116.60966286256837</v>
+        <v>116.58822630497272</v>
       </c>
       <c r="B446">
-        <v>40.232364422811067</v>
+        <v>40.23872660369868</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>116.60966173605154</v>
+        <v>116.5882223158069</v>
       </c>
       <c r="B447">
-        <v>40.232395047157219</v>
+        <v>40.238696122271058</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>116.60966060953361</v>
+        <v>116.58821832664552</v>
       </c>
       <c r="B448">
-        <v>40.232425671504103</v>
+        <v>40.238665640844744</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>116.60965948301467</v>
+        <v>116.58821433748855</v>
       </c>
       <c r="B449">
-        <v>40.232456295851719</v>
+        <v>40.238635159419701</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>116.60965835649466</v>
+        <v>116.58821034833599</v>
       </c>
       <c r="B450">
-        <v>40.232486920200046</v>
+        <v>40.238604677995944</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>116.60965722997358</v>
+        <v>116.58820635918789</v>
       </c>
       <c r="B451">
-        <v>40.232517544549118</v>
+        <v>40.238574196573495</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>116.60965610345146</v>
+        <v>116.5882023700442</v>
       </c>
       <c r="B452">
-        <v>40.23254816889888</v>
+        <v>40.238543715152325</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>116.60965497692827</v>
+        <v>116.58819838090493</v>
       </c>
       <c r="B453">
-        <v>40.232578793249402</v>
+        <v>40.238513233732455</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>116.60965385040406</v>
+        <v>116.58819439177005</v>
       </c>
       <c r="B454">
-        <v>40.232609417600635</v>
+        <v>40.238482752313864</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>116.6096527238788</v>
+        <v>116.58819040263963</v>
       </c>
       <c r="B455">
-        <v>40.232640041952578</v>
+        <v>40.238452270896559</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>116.60965159735245</v>
+        <v>116.58818641351357</v>
       </c>
       <c r="B456">
-        <v>40.232670666305268</v>
+        <v>40.238421789480554</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>116.60965047082509</v>
+        <v>116.58818242439199</v>
       </c>
       <c r="B457">
-        <v>40.23270129065866</v>
+        <v>40.238391308065822</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>116.60964934429664</v>
+        <v>116.58817843527483</v>
       </c>
       <c r="B458">
-        <v>40.232731915012806</v>
+        <v>40.238360826652389</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>116.60964821776712</v>
+        <v>116.58817444616207</v>
       </c>
       <c r="B459">
-        <v>40.232762539367663</v>
+        <v>40.238330345240243</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>116.6096470912366</v>
+        <v>116.58817045705369</v>
       </c>
       <c r="B460">
-        <v>40.232793163723258</v>
+        <v>40.238299863829404</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>116.609645964705</v>
+        <v>116.5881664679498</v>
       </c>
       <c r="B461">
-        <v>40.232823788079557</v>
+        <v>40.238269382419823</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>116.60964483817234</v>
+        <v>116.58816247885029</v>
       </c>
       <c r="B462">
-        <v>40.232854412436602</v>
+        <v>40.238238901011549</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>116.60964371163863</v>
+        <v>116.58815848975519</v>
       </c>
       <c r="B463">
-        <v>40.232885036794343</v>
+        <v>40.238208419604561</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>116.60964258510387</v>
+        <v>116.58815450066453</v>
       </c>
       <c r="B464">
-        <v>40.232915661152845</v>
+        <v>40.238177938198866</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>116.60964145856805</v>
+        <v>116.58815051157829</v>
       </c>
       <c r="B465">
-        <v>40.232946285512043</v>
+        <v>40.238147456794451</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>116.60964033203118</v>
+        <v>116.5881465224965</v>
       </c>
       <c r="B466">
-        <v>40.232976909871986</v>
+        <v>40.238116975391328</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>116.60963920549324</v>
+        <v>116.58814253341905</v>
       </c>
       <c r="B467">
-        <v>40.233007534232655</v>
+        <v>40.238086493989478</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>116.6096380789543</v>
+        <v>116.58813854434608</v>
       </c>
       <c r="B468">
-        <v>40.233038158594034</v>
+        <v>40.238056012588935</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
